--- a/HON 394/Gun related deaths.xlsx
+++ b/HON 394/Gun related deaths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\Junior\HON 394\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DA2C34-EED3-43FC-A0FD-0C7919C800DF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411DBB84-332B-437D-A88C-0B45CF580886}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15945" windowHeight="10365" xr2:uid="{E7ADF411-F47B-44C6-94DB-F0EC09028AFD}"/>
   </bookViews>
@@ -193,12 +193,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -206,7 +203,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Gun-Related Deaths in High-Income Countries, per 1 million people </a:t>
             </a:r>
           </a:p>
@@ -225,12 +226,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -243,7 +241,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21958998059733797"/>
+          <c:y val="7.0506037132005442E-2"/>
+          <c:w val="0.76054995597962849"/>
+          <c:h val="0.8661526373563464"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -657,7 +665,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -699,12 +706,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -793,10 +797,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.85022375042669573"/>
+          <c:x val="0.8285033599461431"/>
           <c:y val="0.48087501978045388"/>
-          <c:w val="8.2201701411584671E-2"/>
-          <c:h val="8.8119203202071117E-2"/>
+          <c:w val="0.11438005767907017"/>
+          <c:h val="0.12304279752739954"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -812,12 +816,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1757,7 +1758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB565D80-6A40-4EB9-9B04-77671518D2F3}">
   <dimension ref="B2:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
